--- a/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Input/DanhSachXeMay.xlsx
+++ b/DoAnCuoiKy/DoAnCuoiKy/bin/Debug/Input/DanhSachXeMay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\DoAnCuoiKy\bin\Debug\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05773FF-4B7A-47D4-950F-4DE971BA8D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84611438-E661-467F-8FB8-818511E48A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5184" yWindow="2328" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t>Tài khoản ngân hàng của chủ xe</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Đám cưới</t>
+  </si>
+  <si>
+    <t>Cup2010</t>
   </si>
 </sst>
 </file>
@@ -438,27 +441,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -593,16 +596,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5">
-        <v>44814</v>
+        <v>44449</v>
       </c>
       <c r="D5">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -640,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="5">
-        <v>44449</v>
+        <v>44440</v>
       </c>
       <c r="D6">
         <v>160</v>
@@ -681,7 +684,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="5">
-        <v>44440</v>
+        <v>44441</v>
       </c>
       <c r="D7">
         <v>160</v>
@@ -719,10 +722,10 @@
         <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5">
-        <v>44441</v>
+        <v>44442</v>
       </c>
       <c r="D8">
         <v>160</v>
@@ -763,7 +766,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="5">
-        <v>44442</v>
+        <v>44443</v>
       </c>
       <c r="D9">
         <v>160</v>
@@ -804,7 +807,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="5">
-        <v>44443</v>
+        <v>44444</v>
       </c>
       <c r="D10">
         <v>160</v>
@@ -845,7 +848,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="5">
-        <v>44444</v>
+        <v>44445</v>
       </c>
       <c r="D11">
         <v>160</v>
@@ -883,10 +886,10 @@
         <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5">
-        <v>44445</v>
+        <v>44446</v>
       </c>
       <c r="D12">
         <v>160</v>
@@ -927,7 +930,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="5">
-        <v>44446</v>
+        <v>44447</v>
       </c>
       <c r="D13">
         <v>160</v>
@@ -968,7 +971,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="5">
-        <v>44447</v>
+        <v>44449</v>
       </c>
       <c r="D14">
         <v>160</v>
@@ -1009,7 +1012,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="5">
-        <v>44449</v>
+        <v>44450</v>
       </c>
       <c r="D15">
         <v>160</v>
@@ -1047,51 +1050,51 @@
         <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" s="5">
-        <v>44450</v>
+        <v>44938</v>
       </c>
       <c r="D16">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G16">
-        <v>500000</v>
+        <v>10000</v>
       </c>
       <c r="H16">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="I16">
-        <v>70000</v>
+        <v>10000</v>
       </c>
       <c r="J16">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="K16">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="L16">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="M16">
-        <v>100000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C17" s="5">
-        <v>44938</v>
+        <v>45062</v>
       </c>
       <c r="D17">
         <v>100</v>
@@ -1103,67 +1106,29 @@
         <v>22</v>
       </c>
       <c r="G17">
-        <v>10000</v>
+        <v>10000000</v>
       </c>
       <c r="H17">
         <v>10000</v>
       </c>
       <c r="I17">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="J17">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="K17">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="L17">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="M17">
         <v>10000</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>123</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="5">
-        <v>45265</v>
-      </c>
-      <c r="D18">
-        <v>100</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18">
-        <v>1000000</v>
-      </c>
-      <c r="H18">
-        <v>10000000</v>
-      </c>
-      <c r="I18">
-        <v>10000</v>
-      </c>
-      <c r="J18">
-        <v>10000</v>
-      </c>
-      <c r="K18">
-        <v>10000</v>
-      </c>
-      <c r="L18">
-        <v>10000</v>
-      </c>
-      <c r="M18">
-        <v>10000</v>
-      </c>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C19" s="5"/>
@@ -1214,16 +1179,10 @@
       <c r="C34" s="5"/>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="5"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="6"/>
+      <c r="C36" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
